--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Hugh_Garfit_Alston/Arthur_Hugh_Garfit_Alston.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Hugh_Garfit_Alston/Arthur_Hugh_Garfit_Alston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Hugh Garfit Alston (né le 4 septembre 1902 à West Ashby, dans le Lincolnshire et mort le 17 mars 1958 (à 55 ans) à Barcelone) est un botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Hugh Garfit Alston obtient son Bachelor of Arts en biologie à Oxford en 1924, date à laquelle il entre comme assistant à l’herbier conservé dans les Jardins botaniques royaux de Kew. Il dirige le jardin botanique de Peradeniya à Ceylan de 1925 à 1930. Il devient membre de la Société linnéenne de Londres en 1927.
 Il devient assistant-chef au British Museum en 1930 où il se spécialise sur le Ptéridophytes, particulièrement ceux appartenant au genre Selaginella. Il fait plusieurs voyages d’herborisation : à Ceylan, en Amérique centrale de 1938 à 1939 et en Indonésie de 1953 à 1954. Il préside la British Pteridological Society de 1947 à 1958.
